--- a/training_program.xlsx
+++ b/training_program.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kamadakotaro/Desktop/training_log_app/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E137992-60C3-AD4B-9DAD-9D87A22F3071}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{586053EC-CC5A-3E47-8435-4595BCCC0754}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="17140" xr2:uid="{2078C720-DD1B-E243-A1C1-2D8E856581F3}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="147">
   <si>
     <t xml:space="preserve">Program </t>
     <phoneticPr fontId="1"/>
@@ -523,13 +523,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Tatsuhiro①&lt;Ankle Sprain&gt; Day1</t>
-  </si>
-  <si>
-    <t>Tatsuhiro①&lt;Ankle Sprain&gt; Day1</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>サイドレイズ</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -571,13 +564,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Tatsuhiro①&lt;Ankle Sprain&gt; Day2</t>
-  </si>
-  <si>
-    <t>Tatsuhiro①&lt;Ankle Sprain&gt; Day2</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>4RM</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -602,13 +588,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Atsushi③&lt;Ankle Sprain&gt;Day1</t>
-  </si>
-  <si>
-    <t>Atsushi③&lt;Ankle Sprain&gt;Day1</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>スプリットSQ</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -630,6 +609,34 @@
   </si>
   <si>
     <t>Band</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(Tatsuhiro)①&lt;Ankle Sprain&gt; Day1</t>
+  </si>
+  <si>
+    <t>(Tatsuhiro)①&lt;Ankle Sprain&gt; Day1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(Tatsuhiro)①&lt;Ankle Sprain&gt; Day2</t>
+  </si>
+  <si>
+    <t>(Tatsuhiro)①&lt;Ankle Sprain&gt; Day2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(Atsushi)③&lt;Ankle Sprain&gt;Day1</t>
+  </si>
+  <si>
+    <t>(Atsushi)③&lt;Ankle Sprain&gt;Day1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(Atsushi)③&lt;Ankle Sprain&gt;Day2</t>
+  </si>
+  <si>
+    <t>(Atsushi)③&lt;Ankle Sprain&gt;Day2</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1023,10 +1030,10 @@
   <dimension ref="A1:G140"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="170" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B125" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B126" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C135" sqref="C135"/>
+      <selection pane="bottomRight" activeCell="A129" sqref="A129:A140"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -2908,7 +2915,7 @@
     </row>
     <row r="94" spans="1:6">
       <c r="A94" t="s">
-        <v>119</v>
+        <v>140</v>
       </c>
       <c r="B94" t="s">
         <v>47</v>
@@ -2928,7 +2935,7 @@
     </row>
     <row r="95" spans="1:6">
       <c r="A95" t="s">
-        <v>119</v>
+        <v>140</v>
       </c>
       <c r="B95" t="s">
         <v>47</v>
@@ -2948,7 +2955,7 @@
     </row>
     <row r="96" spans="1:6">
       <c r="A96" t="s">
-        <v>118</v>
+        <v>139</v>
       </c>
       <c r="B96" t="s">
         <v>47</v>
@@ -2968,7 +2975,7 @@
     </row>
     <row r="97" spans="1:7">
       <c r="A97" t="s">
-        <v>118</v>
+        <v>139</v>
       </c>
       <c r="B97" t="s">
         <v>47</v>
@@ -2988,13 +2995,13 @@
     </row>
     <row r="98" spans="1:7">
       <c r="A98" t="s">
-        <v>118</v>
+        <v>139</v>
       </c>
       <c r="B98">
         <v>1</v>
       </c>
       <c r="C98" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D98">
         <v>4</v>
@@ -3006,7 +3013,7 @@
     </row>
     <row r="99" spans="1:7">
       <c r="A99" t="s">
-        <v>118</v>
+        <v>139</v>
       </c>
       <c r="B99">
         <v>2</v>
@@ -3021,12 +3028,12 @@
         <v>18</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="100" spans="1:7">
       <c r="A100" t="s">
-        <v>118</v>
+        <v>139</v>
       </c>
       <c r="B100">
         <v>3</v>
@@ -3044,7 +3051,7 @@
     </row>
     <row r="101" spans="1:7">
       <c r="A101" t="s">
-        <v>118</v>
+        <v>139</v>
       </c>
       <c r="B101">
         <v>4</v>
@@ -3062,7 +3069,7 @@
     </row>
     <row r="102" spans="1:7">
       <c r="A102" t="s">
-        <v>118</v>
+        <v>139</v>
       </c>
       <c r="B102">
         <v>5</v>
@@ -3074,7 +3081,7 @@
         <v>3</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F102" s="2">
         <v>8</v>
@@ -3082,36 +3089,36 @@
     </row>
     <row r="103" spans="1:7">
       <c r="A103" t="s">
-        <v>118</v>
+        <v>139</v>
       </c>
       <c r="B103">
         <v>6</v>
       </c>
       <c r="C103" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D103">
         <v>3</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F103" s="2">
         <v>12</v>
       </c>
       <c r="G103" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="104" spans="1:7">
       <c r="A104" t="s">
-        <v>118</v>
+        <v>139</v>
       </c>
       <c r="B104">
         <v>7</v>
       </c>
       <c r="C104" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D104">
         <v>3</v>
@@ -3123,13 +3130,13 @@
     </row>
     <row r="105" spans="1:7">
       <c r="A105" t="s">
-        <v>118</v>
+        <v>139</v>
       </c>
       <c r="B105">
         <v>8</v>
       </c>
       <c r="C105" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D105">
         <v>3</v>
@@ -3138,12 +3145,12 @@
         <v>18</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="106" spans="1:7">
       <c r="A106" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="B106" t="s">
         <v>47</v>
@@ -3163,7 +3170,7 @@
     </row>
     <row r="107" spans="1:7">
       <c r="A107" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="B107" t="s">
         <v>47</v>
@@ -3183,7 +3190,7 @@
     </row>
     <row r="108" spans="1:7">
       <c r="A108" t="s">
-        <v>129</v>
+        <v>141</v>
       </c>
       <c r="B108" t="s">
         <v>47</v>
@@ -3203,7 +3210,7 @@
     </row>
     <row r="109" spans="1:7">
       <c r="A109" t="s">
-        <v>129</v>
+        <v>141</v>
       </c>
       <c r="B109" t="s">
         <v>47</v>
@@ -3223,7 +3230,7 @@
     </row>
     <row r="110" spans="1:7">
       <c r="A110" t="s">
-        <v>129</v>
+        <v>141</v>
       </c>
       <c r="B110">
         <v>1</v>
@@ -3235,7 +3242,7 @@
         <v>4</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="F110" s="2">
         <v>4</v>
@@ -3243,13 +3250,13 @@
     </row>
     <row r="111" spans="1:7">
       <c r="A111" t="s">
-        <v>129</v>
+        <v>141</v>
       </c>
       <c r="B111">
         <v>2</v>
       </c>
       <c r="C111" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="D111">
         <v>3</v>
@@ -3258,18 +3265,18 @@
         <v>7</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="112" spans="1:7">
       <c r="A112" t="s">
-        <v>129</v>
+        <v>141</v>
       </c>
       <c r="B112">
         <v>3</v>
       </c>
       <c r="C112" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D112">
         <v>3</v>
@@ -3281,7 +3288,7 @@
     </row>
     <row r="113" spans="1:6">
       <c r="A113" t="s">
-        <v>129</v>
+        <v>141</v>
       </c>
       <c r="B113">
         <v>4</v>
@@ -3299,13 +3306,13 @@
     </row>
     <row r="114" spans="1:6">
       <c r="A114" t="s">
-        <v>129</v>
+        <v>141</v>
       </c>
       <c r="B114">
         <v>5</v>
       </c>
       <c r="C114" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D114">
         <v>3</v>
@@ -3319,13 +3326,13 @@
     </row>
     <row r="115" spans="1:6">
       <c r="A115" t="s">
-        <v>129</v>
+        <v>141</v>
       </c>
       <c r="B115">
         <v>6</v>
       </c>
       <c r="C115" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D115">
         <v>3</v>
@@ -3337,7 +3344,7 @@
     </row>
     <row r="116" spans="1:6">
       <c r="A116" t="s">
-        <v>129</v>
+        <v>141</v>
       </c>
       <c r="B116">
         <v>7</v>
@@ -3357,7 +3364,7 @@
     </row>
     <row r="117" spans="1:6">
       <c r="A117" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="B117" t="s">
         <v>47</v>
@@ -3377,7 +3384,7 @@
     </row>
     <row r="118" spans="1:6">
       <c r="A118" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="B118" t="s">
         <v>47</v>
@@ -3397,7 +3404,7 @@
     </row>
     <row r="119" spans="1:6">
       <c r="A119" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="B119" t="s">
         <v>47</v>
@@ -3417,7 +3424,7 @@
     </row>
     <row r="120" spans="1:6">
       <c r="A120" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="B120" t="s">
         <v>47</v>
@@ -3437,7 +3444,7 @@
     </row>
     <row r="121" spans="1:6">
       <c r="A121" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="B121">
         <v>1</v>
@@ -3457,7 +3464,7 @@
     </row>
     <row r="122" spans="1:6">
       <c r="A122" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="B122">
         <v>2</v>
@@ -3477,13 +3484,13 @@
     </row>
     <row r="123" spans="1:6">
       <c r="A123" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="B123">
         <v>3</v>
       </c>
       <c r="C123" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="D123">
         <v>3</v>
@@ -3497,7 +3504,7 @@
     </row>
     <row r="124" spans="1:6">
       <c r="A124" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="B124">
         <v>4</v>
@@ -3509,7 +3516,7 @@
         <v>3</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="F124" s="2">
         <v>8</v>
@@ -3517,19 +3524,19 @@
     </row>
     <row r="125" spans="1:6">
       <c r="A125" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="B125">
         <v>5</v>
       </c>
       <c r="C125" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="D125">
         <v>4</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="F125" s="2">
         <v>8</v>
@@ -3537,7 +3544,7 @@
     </row>
     <row r="126" spans="1:6">
       <c r="A126" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="B126">
         <v>6</v>
@@ -3557,13 +3564,13 @@
     </row>
     <row r="127" spans="1:6">
       <c r="A127" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="B127">
         <v>7</v>
       </c>
       <c r="C127" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D127">
         <v>3</v>
@@ -3575,13 +3582,13 @@
     </row>
     <row r="128" spans="1:6">
       <c r="A128" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="B128">
         <v>8</v>
       </c>
       <c r="C128" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D128">
         <v>3</v>
@@ -3590,12 +3597,12 @@
         <v>18</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="129" spans="1:6">
       <c r="A129" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="B129" t="s">
         <v>47</v>
@@ -3615,7 +3622,7 @@
     </row>
     <row r="130" spans="1:6">
       <c r="A130" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="B130" t="s">
         <v>47</v>
@@ -3635,7 +3642,7 @@
     </row>
     <row r="131" spans="1:6">
       <c r="A131" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="B131" t="s">
         <v>47</v>
@@ -3655,7 +3662,7 @@
     </row>
     <row r="132" spans="1:6">
       <c r="A132" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="B132" t="s">
         <v>47</v>
@@ -3675,13 +3682,13 @@
     </row>
     <row r="133" spans="1:6">
       <c r="A133" t="s">
+        <v>145</v>
+      </c>
+      <c r="B133">
+        <v>1</v>
+      </c>
+      <c r="C133" t="s">
         <v>137</v>
-      </c>
-      <c r="B133">
-        <v>1</v>
-      </c>
-      <c r="C133" t="s">
-        <v>143</v>
       </c>
       <c r="D133">
         <v>4</v>
@@ -3695,7 +3702,7 @@
     </row>
     <row r="134" spans="1:6">
       <c r="A134" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="B134">
         <v>2</v>
@@ -3715,7 +3722,7 @@
     </row>
     <row r="135" spans="1:6">
       <c r="A135" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="B135">
         <v>3</v>
@@ -3735,13 +3742,13 @@
     </row>
     <row r="136" spans="1:6">
       <c r="A136" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="B136">
         <v>4</v>
       </c>
       <c r="C136" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D136">
         <v>3</v>
@@ -3753,7 +3760,7 @@
     </row>
     <row r="137" spans="1:6">
       <c r="A137" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="B137">
         <v>5</v>
@@ -3765,7 +3772,7 @@
         <v>4</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="F137" s="2">
         <v>6</v>
@@ -3773,13 +3780,13 @@
     </row>
     <row r="138" spans="1:6">
       <c r="A138" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="B138">
         <v>6</v>
       </c>
       <c r="C138" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D138">
         <v>3</v>
@@ -3793,13 +3800,13 @@
     </row>
     <row r="139" spans="1:6">
       <c r="A139" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="B139">
         <v>7</v>
       </c>
       <c r="C139" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D139">
         <v>3</v>
@@ -3811,7 +3818,7 @@
     </row>
     <row r="140" spans="1:6">
       <c r="A140" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="B140">
         <v>8</v>
